--- a/data/trans_dic/iP30A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>54,45%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,91; 73,92</t>
+          <t>22,68; 73,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,71; 70,7</t>
+          <t>37,48; 75,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,86; 70,45</t>
+          <t>39,53; 69,99</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>66,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,35; 63,02</t>
+          <t>61,91; 73,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,63; 63,95</t>
+          <t>57,71; 70,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,82; 61,02</t>
+          <t>61,86; 70,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>51,48%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 73,6</t>
+          <t>44,81; 59,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,48; 75,96</t>
+          <t>40,67; 57,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 69,99</t>
+          <t>46,02; 57,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>56,59%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,81; 59,97</t>
+          <t>49,35; 63,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,67; 57,72</t>
+          <t>50,63; 63,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,02; 57,21</t>
+          <t>51,82; 61,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,44; 70,82</t>
+          <t>48,04; 69,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,74; 73,72</t>
+          <t>57,05; 73,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,75; 69,65</t>
+          <t>56,12; 69,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,91; 73,92</t>
+          <t>62,49; 73,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,71; 70,7</t>
+          <t>57,58; 70,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,86; 70,45</t>
+          <t>62,0; 70,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,81; 59,97</t>
+          <t>45,0; 60,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,67; 57,72</t>
+          <t>41,54; 58,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,02; 57,21</t>
+          <t>45,72; 56,88</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 63,02</t>
+          <t>48,9; 62,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,63; 63,95</t>
+          <t>50,93; 63,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,82; 61,02</t>
+          <t>52,15; 61,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,62; 63,44</t>
+          <t>56,59; 63,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,09; 62,15</t>
+          <t>54,84; 62,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,75; 62,01</t>
+          <t>56,87; 61,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
